--- a/basic/ch06_조건부처리/show fail.xlsx
+++ b/basic/ch06_조건부처리/show fail.xlsx
@@ -1,87 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Python_WS\Excel_WS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>S N</t>
+  </si>
+  <si>
+    <t>Roll No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>Islamiat</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Obt/Marks</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fareed Khan</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Sanwal </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Tanveer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Murtaza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Israr </t>
+  </si>
+  <si>
+    <t>Hassan Raza Khan</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Adobe Gothic Std B"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="13"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Adobe Garamond Pro Bold"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="16"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCAA"/>
-        <bgColor rgb="FF123456"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffccaa"/>
-        <bgColor rgb="00123456"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -111,118 +178,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -512,382 +517,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I7"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="36.28515625" customWidth="1" min="3" max="3"/>
-    <col width="12.85546875" customWidth="1" min="4" max="4"/>
-    <col width="11.140625" customWidth="1" min="5" max="5"/>
-    <col width="10.7109375" customWidth="1" min="8" max="8"/>
-    <col width="11.7109375" customWidth="1" min="10" max="10"/>
-    <col width="12.85546875" customWidth="1" min="11" max="11"/>
-    <col width="16.42578125" customWidth="1" min="12" max="13"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="36.296875" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" customWidth="1"/>
+    <col min="12" max="13" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>S N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Roll No</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Physics</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Chemistry</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Urdu</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Bio</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Islamiat</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>Obt/Marks</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Total Marks</t>
-        </is>
-      </c>
-      <c r="L1" s="5" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="M1" s="5" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
+    <row r="1" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" ht="23.25" customHeight="1">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>11069</v>
       </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>Fareed Khan</t>
-        </is>
-      </c>
-      <c r="D2" s="13" t="n">
+      <c r="C2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="12">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="12">
         <v>48</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="12">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="12">
         <v>33</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="12">
         <v>33</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="12">
         <v>79</v>
       </c>
       <c r="J2" s="8">
-        <f>D2+E2+F2+G2+H2+I2</f>
-        <v/>
-      </c>
-      <c r="K2" s="9" t="n">
+        <f t="shared" ref="J2:J7" si="0">D2+E2+F2+G2+H2+I2</f>
+        <v>214</v>
+      </c>
+      <c r="K2" s="9">
         <v>505</v>
       </c>
       <c r="L2" s="9">
-        <f>J2/K2*100</f>
-        <v/>
-      </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
+        <f t="shared" ref="L2:L7" si="1">J2/K2*100</f>
+        <v>42.376237623762378</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" ht="23.25" customHeight="1">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>11073</v>
       </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muhammad Sanwal </t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="n">
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12">
         <v>44</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="12">
         <v>46</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="12">
         <v>76</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="12">
         <v>55</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="12">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="12">
         <v>70</v>
       </c>
       <c r="J3" s="8">
-        <f>D3+E3+F3+G3+H3+I3</f>
-        <v/>
-      </c>
-      <c r="K3" s="9" t="n">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="K3" s="9">
         <v>505</v>
       </c>
       <c r="L3" s="9">
-        <f>J3/K3*100</f>
-        <v/>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+        <f t="shared" si="1"/>
+        <v>64.356435643564353</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" ht="23.25" customHeight="1">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>11074</v>
       </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muhammad Tanveer </t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12">
         <v>34</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="12">
         <v>29</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="12">
         <v>80</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="12">
         <v>77</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="12">
         <v>23</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="12">
         <v>65</v>
       </c>
       <c r="J4" s="8">
-        <f>D4+E4+F4+G4+H4+I4</f>
-        <v/>
-      </c>
-      <c r="K4" s="9" t="n">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="K4" s="9">
         <v>505</v>
       </c>
       <c r="L4" s="9">
-        <f>J4/K4*100</f>
-        <v/>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+        <f t="shared" si="1"/>
+        <v>60.990099009900987</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" ht="23.25" customHeight="1">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>11075</v>
       </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muhammad Murtaza </t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="n">
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12">
         <v>22</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="12">
         <v>20</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="12">
         <v>21</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="12">
         <v>30</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="12">
         <v>54</v>
       </c>
       <c r="J5" s="8">
-        <f>D5+E5+F5+G5+H5+I5</f>
-        <v/>
-      </c>
-      <c r="K5" s="9" t="n">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="K5" s="9">
         <v>505</v>
       </c>
       <c r="L5" s="9">
-        <f>J5/K5*100</f>
-        <v/>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
+        <f t="shared" si="1"/>
+        <v>31.485148514851485</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" ht="23.25" customHeight="1">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>11076</v>
       </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muhammad Israr </t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="n">
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="12">
         <v>34</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="12">
         <v>33</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="12">
         <v>12</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="12">
         <v>12</v>
       </c>
       <c r="J6" s="8">
-        <f>D6+E6+F6+G6+H6+I6</f>
-        <v/>
-      </c>
-      <c r="K6" s="9" t="n">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="K6" s="9">
         <v>505</v>
       </c>
       <c r="L6" s="9">
-        <f>J6/K6*100</f>
-        <v/>
-      </c>
-      <c r="M6" s="9" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
+        <f t="shared" si="1"/>
+        <v>27.128712871287131</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" ht="23.25" customHeight="1">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:13" ht="23.25" customHeight="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>11077</v>
       </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>Hassan Raza Khan</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="n">
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12">
         <v>55</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="12">
         <v>56</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="12">
         <v>89</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="12">
         <v>86</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="12">
         <v>40</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="12">
         <v>81</v>
       </c>
       <c r="J7" s="8">
-        <f>D7+E7+F7+G7+H7+I7</f>
-        <v/>
-      </c>
-      <c r="K7" s="9" t="n">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="K7" s="9">
         <v>505</v>
       </c>
       <c r="L7" s="9">
-        <f>J7/K7*100</f>
-        <v/>
-      </c>
-      <c r="M7" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+        <f t="shared" si="1"/>
+        <v>80.594059405940598</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>